--- a/results/comparativas/rgConLsVSprevio.xlsx
+++ b/results/comparativas/rgConLsVSprevio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\TFG\kMIS\results\comparativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A77F37C-EC87-4AC1-9A73-872D17D57B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DFCD39-1CDD-4FB6-A26F-F82B8020796C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -248,12 +248,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -264,6 +258,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99818D-0343-445B-863F-AD30022710BA}">
   <dimension ref="A2:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -674,19 +677,19 @@
         <f>F10</f>
         <v>AlgConstructive(GRASPRGConstructive(0.5), LocalSearchEfficient(firstImprovement),1000)</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <f>AVERAGE(F12:F38)</f>
         <v>25.296296296296298</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f t="shared" ref="D4:E4" si="1">AVERAGE(G12:G38)</f>
         <v>0.87237037037037013</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f t="shared" si="1"/>
         <v>1.490259601677864E-2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f>SUM(I12:I38)</f>
         <v>20</v>
       </c>
@@ -702,18 +705,18 @@
       <c r="E6" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -767,10 +770,10 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>1.9219999999999999</v>
       </c>
       <c r="D12" s="4">
@@ -806,10 +809,10 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>24.015000000000001</v>
       </c>
       <c r="D13" s="4">
@@ -845,10 +848,10 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>0.35599999999999998</v>
       </c>
       <c r="D14" s="4">
@@ -884,10 +887,10 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>0.44900000000000001</v>
       </c>
       <c r="D15" s="4">
@@ -923,10 +926,10 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="15">
-        <v>1</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
         <v>13.635</v>
       </c>
       <c r="D16" s="4">
@@ -962,10 +965,10 @@
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15">
-        <v>1</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
         <v>22.702000000000002</v>
       </c>
       <c r="D17" s="4">
@@ -1001,10 +1004,10 @@
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
         <v>81.575000000000003</v>
       </c>
       <c r="D18" s="4">
@@ -1040,10 +1043,10 @@
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>33</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>11.257999999999999</v>
       </c>
       <c r="D19" s="4">
@@ -1079,10 +1082,10 @@
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>12</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>31.382999999999999</v>
       </c>
       <c r="D20" s="4">
@@ -1118,10 +1121,10 @@
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="19">
         <v>42</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>9.0079999999999991</v>
       </c>
       <c r="D21" s="4">
@@ -1157,10 +1160,10 @@
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>25.8</v>
       </c>
       <c r="D22" s="4">
@@ -1196,10 +1199,10 @@
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>6</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>39.805999999999997</v>
       </c>
       <c r="D23" s="4">
@@ -1235,10 +1238,10 @@
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>6</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>2.7280000000000002</v>
       </c>
       <c r="D24" s="4">
@@ -1274,10 +1277,10 @@
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>7</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>0.46600000000000003</v>
       </c>
       <c r="D25" s="4">
@@ -1313,10 +1316,10 @@
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>2</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>0.58299999999999996</v>
       </c>
       <c r="D26" s="4">
@@ -1352,10 +1355,10 @@
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="15">
-        <v>1</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
         <v>1.706</v>
       </c>
       <c r="D27" s="4">
@@ -1391,10 +1394,10 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="19">
         <v>43</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>26.542999999999999</v>
       </c>
       <c r="D28" s="4">
@@ -1430,10 +1433,10 @@
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="19">
         <v>31</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>59.481999999999999</v>
       </c>
       <c r="D29" s="4">
@@ -1469,10 +1472,10 @@
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="19">
         <v>23</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>86.88</v>
       </c>
       <c r="D30" s="4">
@@ -1508,10 +1511,10 @@
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <v>12</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>71.656000000000006</v>
       </c>
       <c r="D31" s="4">
@@ -1547,10 +1550,10 @@
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <v>9</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>115.851</v>
       </c>
       <c r="D32" s="4">
@@ -1586,10 +1589,10 @@
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="13">
         <v>78</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>2.8940000000000001</v>
       </c>
       <c r="D33" s="4">
@@ -1625,10 +1628,10 @@
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="19">
         <v>74</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>86.74</v>
       </c>
       <c r="D34" s="4">
@@ -1664,10 +1667,10 @@
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="13">
         <v>108</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>105.09699999999999</v>
       </c>
       <c r="D35" s="4">
@@ -1703,10 +1706,10 @@
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="13">
         <v>81</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>130.75200000000001</v>
       </c>
       <c r="D36" s="4">
@@ -1742,10 +1745,10 @@
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="13">
         <v>3</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>20.213999999999999</v>
       </c>
       <c r="D37" s="4">
@@ -1781,10 +1784,10 @@
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="19">
         <v>97</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>218.77500000000001</v>
       </c>
       <c r="D38" s="4">
